--- a/tablas/tablas_C02.xlsx
+++ b/tablas/tablas_C02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
     <sheet name="Hoja5" sheetId="5" r:id="rId4"/>
     <sheet name="Hoja6" sheetId="6" r:id="rId5"/>
+    <sheet name="Hoja7" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Fecha</t>
   </si>
@@ -106,6 +107,63 @@
   </si>
   <si>
     <t>final</t>
+  </si>
+  <si>
+    <t>Estrada</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Lola</t>
+  </si>
+  <si>
+    <t>Velazco</t>
+  </si>
+  <si>
+    <t>Carolina</t>
+  </si>
+  <si>
+    <t>Robledo</t>
+  </si>
+  <si>
+    <t>Sebastián</t>
+  </si>
+  <si>
+    <t>Ruíz</t>
+  </si>
+  <si>
+    <t>Soledad</t>
+  </si>
+  <si>
+    <t>Salazar</t>
+  </si>
+  <si>
+    <t>Gómez</t>
+  </si>
+  <si>
+    <t>Martín</t>
+  </si>
+  <si>
+    <t>Calificación</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Aprobó</t>
+  </si>
+  <si>
+    <t>Alumno</t>
   </si>
 </sst>
 </file>
@@ -113,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="174" formatCode="dddd\ dd\ mmmm\ yyyy\ hh:mm"/>
-    <numFmt numFmtId="179" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="dddd\ dd\ mmmm\ yyyy\ hh:mm"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,8 +190,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,8 +212,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -217,11 +301,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -234,11 +333,25 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -805,4 +918,290 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16" style="17" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16" style="17" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="19">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D2" s="18" t="str">
+        <f>IF(C2&lt;5,"No","Sí")</f>
+        <v>Sí</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="19">
+        <v>8.9</v>
+      </c>
+      <c r="D3" s="18" t="str">
+        <f>IF(C3&lt;5,"No","Sí")</f>
+        <v>Sí</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="D4" s="18" t="str">
+        <f>IF(C4&lt;5,"No","Sí")</f>
+        <v>Sí</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="19">
+        <v>7.1</v>
+      </c>
+      <c r="D5" s="18" t="str">
+        <f>IF(C5&lt;5,"No","Sí")</f>
+        <v>Sí</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="19">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D6" s="18" t="str">
+        <f>IF(C6&lt;5,"No","Sí")</f>
+        <v>Sí</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="19">
+        <v>4.2</v>
+      </c>
+      <c r="D7" s="18" t="str">
+        <f>IF(C7&lt;5,"No","Sí")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D8" s="18" t="str">
+        <f>IF(C8&lt;5,"No","Sí")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="D9" s="18" t="str">
+        <f>IF(C9&lt;5,"No","Sí")</f>
+        <v>Sí</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="19">
+        <v>9</v>
+      </c>
+      <c r="D10" s="18" t="str">
+        <f>IF(C10&lt;5,"No","Sí")</f>
+        <v>Sí</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="19">
+        <v>6.2</v>
+      </c>
+      <c r="D11" s="18" t="str">
+        <f>IF(C11&lt;5,"No","Sí")</f>
+        <v>Sí</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="19">
+        <v>9.1</v>
+      </c>
+      <c r="D12" s="18" t="str">
+        <f>IF(C12&lt;5,"No","Sí")</f>
+        <v>Sí</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="19">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D13" s="18" t="str">
+        <f>IF(C13&lt;5,"No","Sí")</f>
+        <v>Sí</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="19">
+        <v>8.4</v>
+      </c>
+      <c r="D14" s="18" t="str">
+        <f>IF(C14&lt;5,"No","Sí")</f>
+        <v>Sí</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="19">
+        <v>7</v>
+      </c>
+      <c r="D15" s="18" t="str">
+        <f>IF(C15&lt;5,"No","Sí")</f>
+        <v>Sí</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D16" s="18" t="str">
+        <f>IF(C16&lt;5,"No","Sí")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="19">
+        <v>6</v>
+      </c>
+      <c r="D17" s="18" t="str">
+        <f>IF(C17&lt;5,"No","Sí")</f>
+        <v>Sí</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>